--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H2">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I2">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J2">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>128.1020196797145</v>
+        <v>35.21004660100444</v>
       </c>
       <c r="R2">
-        <v>1152.91817711743</v>
+        <v>316.89041940904</v>
       </c>
       <c r="S2">
-        <v>0.0125802290143468</v>
+        <v>0.01872141030843569</v>
       </c>
       <c r="T2">
-        <v>0.02160091537652625</v>
+        <v>0.0276841079478839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H3">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I3">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J3">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>79.67823470249468</v>
+        <v>68.86392031454668</v>
       </c>
       <c r="R3">
-        <v>717.104112322452</v>
+        <v>619.7752828309201</v>
       </c>
       <c r="S3">
-        <v>0.007824782486040594</v>
+        <v>0.03661539339227315</v>
       </c>
       <c r="T3">
-        <v>0.0134355633850489</v>
+        <v>0.0541446657343532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H4">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I4">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J4">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>1.004531388782444</v>
+        <v>527.7060106432334</v>
       </c>
       <c r="R4">
-        <v>9.040782499041999</v>
+        <v>3166.2360638594</v>
       </c>
       <c r="S4">
-        <v>9.864977113225134E-05</v>
+        <v>0.2805847109329833</v>
       </c>
       <c r="T4">
-        <v>0.0001693868494533196</v>
+        <v>0.276607986899165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H5">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I5">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J5">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>1922.39470625188</v>
+        <v>0.8443241941533335</v>
       </c>
       <c r="R5">
-        <v>11534.36823751128</v>
+        <v>7.598917747380001</v>
       </c>
       <c r="S5">
-        <v>0.1887883245016961</v>
+        <v>0.0004489326541144919</v>
       </c>
       <c r="T5">
-        <v>0.2161063266806279</v>
+        <v>0.0006638549047897073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.52425533333333</v>
+        <v>13.149005</v>
       </c>
       <c r="H6">
-        <v>43.572766</v>
+        <v>39.447015</v>
       </c>
       <c r="I6">
-        <v>0.2093406766457121</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J6">
-        <v>0.2513957970825711</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>0.4958096628955555</v>
+        <v>36.88192463660667</v>
       </c>
       <c r="R6">
-        <v>4.46228696606</v>
+        <v>331.93732172946</v>
       </c>
       <c r="S6">
-        <v>4.869087249636777E-05</v>
+        <v>0.0196103587112838</v>
       </c>
       <c r="T6">
-        <v>8.36047909146812E-05</v>
+        <v>0.02899863196819541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,13 +853,13 @@
         <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J7">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>115.9724928143416</v>
+        <v>72.13378465537001</v>
       </c>
       <c r="R7">
-        <v>1043.752435329075</v>
+        <v>649.20406189833</v>
       </c>
       <c r="S7">
-        <v>0.01138905165286897</v>
+        <v>0.03835400148533173</v>
       </c>
       <c r="T7">
-        <v>0.01955560114938678</v>
+        <v>0.05671561596376037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,43 +915,43 @@
         <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J8">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>72.13378465536998</v>
+        <v>552.763066046975</v>
       </c>
       <c r="R8">
-        <v>649.2040618983299</v>
+        <v>3316.57839628185</v>
       </c>
       <c r="S8">
-        <v>0.007083881525872846</v>
+        <v>0.2939077099238813</v>
       </c>
       <c r="T8">
-        <v>0.0121633974392049</v>
+        <v>0.2897421591713389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,48 +977,48 @@
         <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J9">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>0.9094158668116664</v>
+        <v>0.8844152253050001</v>
       </c>
       <c r="R9">
-        <v>8.184742801304997</v>
+        <v>7.959737027745</v>
       </c>
       <c r="S9">
-        <v>8.930897344457051E-05</v>
+        <v>0.0004702493155885275</v>
       </c>
       <c r="T9">
-        <v>0.0001533482081717703</v>
+        <v>0.0006953767157864883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.149005</v>
+        <v>2.132104</v>
       </c>
       <c r="H10">
-        <v>39.44701499999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I10">
-        <v>0.189518948871723</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J10">
-        <v>0.2275920187957114</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>1740.3699552477</v>
+        <v>5.980383994485333</v>
       </c>
       <c r="R10">
-        <v>10442.2197314862</v>
+        <v>53.823455950368</v>
       </c>
       <c r="S10">
-        <v>0.1709126262134304</v>
+        <v>0.003179808985528794</v>
       </c>
       <c r="T10">
-        <v>0.1956439834497913</v>
+        <v>0.004702112381424853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.149005</v>
+        <v>2.132104</v>
       </c>
       <c r="H11">
-        <v>39.44701499999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I11">
-        <v>0.189518948871723</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J11">
-        <v>0.2275920187957114</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>0.4488632006833332</v>
+        <v>11.696453898896</v>
       </c>
       <c r="R11">
-        <v>4.039768806149999</v>
+        <v>105.268085090064</v>
       </c>
       <c r="S11">
-        <v>4.408050610620649E-05</v>
+        <v>0.006219080453835231</v>
       </c>
       <c r="T11">
-        <v>7.568854915667488E-05</v>
+        <v>0.009196406242053853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H12">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I12">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J12">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>29.19194435050055</v>
+        <v>89.63023013308</v>
       </c>
       <c r="R12">
-        <v>262.727499154505</v>
+        <v>537.78138079848</v>
       </c>
       <c r="S12">
-        <v>0.002866788097654939</v>
+        <v>0.04765697510644697</v>
       </c>
       <c r="T12">
-        <v>0.004922426056732032</v>
+        <v>0.04698153332041841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H13">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I13">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J13">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>18.15711102133133</v>
+        <v>0.143407447144</v>
       </c>
       <c r="R13">
-        <v>163.413999191982</v>
+        <v>1.290667024296</v>
       </c>
       <c r="S13">
-        <v>0.001783114860002788</v>
+        <v>7.625067043198794E-05</v>
       </c>
       <c r="T13">
-        <v>0.00306170206866831</v>
+        <v>0.0001127549557730973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.309793666666666</v>
+        <v>7.086566</v>
       </c>
       <c r="H14">
-        <v>9.929380999999999</v>
+        <v>14.173132</v>
       </c>
       <c r="I14">
-        <v>0.04770464508066981</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J14">
-        <v>0.05728818434504563</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06916233333333333</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N14">
-        <v>0.207487</v>
+        <v>8.414764</v>
       </c>
       <c r="O14">
-        <v>0.0004712403375823902</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P14">
-        <v>0.0006737855263255827</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q14">
-        <v>0.2289130528385555</v>
+        <v>19.87726015347467</v>
       </c>
       <c r="R14">
-        <v>2.060217475547</v>
+        <v>119.263560920848</v>
       </c>
       <c r="S14">
-        <v>2.248035305206296E-05</v>
+        <v>0.01056886823688846</v>
       </c>
       <c r="T14">
-        <v>3.859994944116358E-05</v>
+        <v>0.01041907578316517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.309793666666666</v>
+        <v>7.086566</v>
       </c>
       <c r="H15">
-        <v>9.929380999999999</v>
+        <v>14.173132</v>
       </c>
       <c r="I15">
-        <v>0.04770464508066981</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J15">
-        <v>0.05728818434504563</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>132.35754</v>
+        <v>5.485874</v>
       </c>
       <c r="N15">
-        <v>264.71508</v>
+        <v>16.457622</v>
       </c>
       <c r="O15">
-        <v>0.9018234178214739</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P15">
-        <v>0.8596258536877913</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q15">
-        <v>438.0761476275799</v>
+        <v>38.876008168684</v>
       </c>
       <c r="R15">
-        <v>2628.45688576548</v>
+        <v>233.256049012104</v>
       </c>
       <c r="S15">
-        <v>0.04302116607261001</v>
+        <v>0.02067062586788136</v>
       </c>
       <c r="T15">
-        <v>0.04924640437383341</v>
+        <v>0.02037766131393422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.309793666666666</v>
+        <v>7.086566</v>
       </c>
       <c r="H16">
-        <v>9.929380999999999</v>
+        <v>14.173132</v>
       </c>
       <c r="I16">
-        <v>0.04770464508066981</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J16">
-        <v>0.05728818434504563</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03413666666666666</v>
+        <v>42.038395</v>
       </c>
       <c r="N16">
-        <v>0.10241</v>
+        <v>84.07679</v>
       </c>
       <c r="O16">
-        <v>0.0002325915501781441</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P16">
-        <v>0.000332562405119371</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q16">
-        <v>0.1129853231344444</v>
+        <v>297.90786070157</v>
       </c>
       <c r="R16">
-        <v>1.01686790821</v>
+        <v>1191.63144280628</v>
       </c>
       <c r="S16">
-        <v>1.109569735001117E-05</v>
+        <v>0.1583995431049299</v>
       </c>
       <c r="T16">
-        <v>1.905189637071027E-05</v>
+        <v>0.1041030320773421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H17">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I17">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J17">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>8.819868333333334</v>
+        <v>0.067261</v>
       </c>
       <c r="N17">
-        <v>26.459605</v>
+        <v>0.201783</v>
       </c>
       <c r="O17">
-        <v>0.06009452733181694</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P17">
-        <v>0.08592393201160566</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q17">
-        <v>307.1032951841458</v>
+        <v>0.4766495157260001</v>
       </c>
       <c r="R17">
-        <v>1842.619771104875</v>
+        <v>2.859897094356</v>
       </c>
       <c r="S17">
-        <v>0.0301590075951698</v>
+        <v>0.0002534376412034925</v>
       </c>
       <c r="T17">
-        <v>0.03452306897117863</v>
+        <v>0.0002498456722915127</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8194875</v>
+        <v>2.398207</v>
       </c>
       <c r="H18">
-        <v>69.638975</v>
+        <v>7.194621</v>
       </c>
       <c r="I18">
-        <v>0.5018594693098147</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J18">
-        <v>0.4017864192541332</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.485874</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N18">
-        <v>16.457622</v>
+        <v>8.414764</v>
       </c>
       <c r="O18">
-        <v>0.03737822295894862</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P18">
-        <v>0.05344386636915803</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q18">
-        <v>191.015321169575</v>
+        <v>6.726781976049332</v>
       </c>
       <c r="R18">
-        <v>1146.09192701745</v>
+        <v>60.54103778444399</v>
       </c>
       <c r="S18">
-        <v>0.01875861513792189</v>
+        <v>0.003576673636819803</v>
       </c>
       <c r="T18">
-        <v>0.0214730196995604</v>
+        <v>0.005288972220829636</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8194875</v>
+        <v>2.398207</v>
       </c>
       <c r="H19">
-        <v>69.638975</v>
+        <v>7.194621</v>
       </c>
       <c r="I19">
-        <v>0.5018594693098147</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J19">
-        <v>0.4017864192541332</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06916233333333333</v>
+        <v>5.485874</v>
       </c>
       <c r="N19">
-        <v>0.207487</v>
+        <v>16.457622</v>
       </c>
       <c r="O19">
-        <v>0.0004712403375823902</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P19">
-        <v>0.0006737855263255827</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q19">
-        <v>2.408197000970833</v>
+        <v>13.156261427918</v>
       </c>
       <c r="R19">
-        <v>14.449182005825</v>
+        <v>118.406352851262</v>
       </c>
       <c r="S19">
-        <v>0.0002364964257364763</v>
+        <v>0.006995269591891777</v>
       </c>
       <c r="T19">
-        <v>0.0002707178739676174</v>
+        <v>0.01034418856891467</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.8194875</v>
+        <v>2.398207</v>
       </c>
       <c r="H20">
-        <v>69.638975</v>
+        <v>7.194621</v>
       </c>
       <c r="I20">
-        <v>0.5018594693098147</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J20">
-        <v>0.4017864192541332</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>132.35754</v>
+        <v>42.038395</v>
       </c>
       <c r="N20">
-        <v>264.71508</v>
+        <v>84.07679</v>
       </c>
       <c r="O20">
-        <v>0.9018234178214739</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P20">
-        <v>0.8596258536877913</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q20">
-        <v>4608.62170956075</v>
+        <v>100.816773157765</v>
       </c>
       <c r="R20">
-        <v>18434.486838243</v>
+        <v>604.90063894659</v>
       </c>
       <c r="S20">
-        <v>0.4525886218790482</v>
+        <v>0.0536049326388895</v>
       </c>
       <c r="T20">
-        <v>0.3453859936514951</v>
+        <v>0.05284519051592261</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.398207</v>
+      </c>
+      <c r="H21">
+        <v>7.194621</v>
+      </c>
+      <c r="I21">
+        <v>0.06426264320896187</v>
+      </c>
+      <c r="J21">
+        <v>0.06860517894832399</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>34.8194875</v>
-      </c>
-      <c r="H21">
-        <v>69.638975</v>
-      </c>
-      <c r="I21">
-        <v>0.5018594693098147</v>
-      </c>
-      <c r="J21">
-        <v>0.4017864192541332</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.03413666666666666</v>
+        <v>0.067261</v>
       </c>
       <c r="N21">
-        <v>0.10241</v>
+        <v>0.201783</v>
       </c>
       <c r="O21">
-        <v>0.0002325915501781441</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P21">
-        <v>0.000332562405119371</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q21">
-        <v>1.188621238291667</v>
+        <v>0.161305801027</v>
       </c>
       <c r="R21">
-        <v>7.13172742975</v>
+        <v>1.451752209243</v>
       </c>
       <c r="S21">
-        <v>0.0001167282719383505</v>
+        <v>8.576734136078094E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001336190579314545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.57841</v>
-      </c>
-      <c r="H22">
-        <v>10.73523</v>
-      </c>
-      <c r="I22">
-        <v>0.05157626009208017</v>
-      </c>
-      <c r="J22">
-        <v>0.06193758052253855</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.819868333333334</v>
-      </c>
-      <c r="N22">
-        <v>26.459605</v>
-      </c>
-      <c r="O22">
-        <v>0.06009452733181694</v>
-      </c>
-      <c r="P22">
-        <v>0.08592393201160566</v>
-      </c>
-      <c r="Q22">
-        <v>31.56110504268334</v>
-      </c>
-      <c r="R22">
-        <v>284.04994538415</v>
-      </c>
-      <c r="S22">
-        <v>0.003099450971776411</v>
-      </c>
-      <c r="T22">
-        <v>0.005321920457781953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3.57841</v>
-      </c>
-      <c r="H23">
-        <v>10.73523</v>
-      </c>
-      <c r="I23">
-        <v>0.05157626009208017</v>
-      </c>
-      <c r="J23">
-        <v>0.06193758052253855</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.485874</v>
-      </c>
-      <c r="N23">
-        <v>16.457622</v>
-      </c>
-      <c r="O23">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P23">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q23">
-        <v>19.63070638034</v>
-      </c>
-      <c r="R23">
-        <v>176.67635742306</v>
-      </c>
-      <c r="S23">
-        <v>0.001927828949110496</v>
-      </c>
-      <c r="T23">
-        <v>0.003310183776675515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3.57841</v>
-      </c>
-      <c r="H24">
-        <v>10.73523</v>
-      </c>
-      <c r="I24">
-        <v>0.05157626009208017</v>
-      </c>
-      <c r="J24">
-        <v>0.06193758052253855</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.207487</v>
-      </c>
-      <c r="O24">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P24">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q24">
-        <v>0.2474911852233333</v>
-      </c>
-      <c r="R24">
-        <v>2.22742066701</v>
-      </c>
-      <c r="S24">
-        <v>2.430481421702902E-05</v>
-      </c>
-      <c r="T24">
-        <v>4.173264529171179E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.57841</v>
-      </c>
-      <c r="H25">
-        <v>10.73523</v>
-      </c>
-      <c r="I25">
-        <v>0.05157626009208017</v>
-      </c>
-      <c r="J25">
-        <v>0.06193758052253855</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>132.35754</v>
-      </c>
-      <c r="N25">
-        <v>264.71508</v>
-      </c>
-      <c r="O25">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P25">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q25">
-        <v>473.6295447114001</v>
-      </c>
-      <c r="R25">
-        <v>2841.7772682684</v>
-      </c>
-      <c r="S25">
-        <v>0.04651267915468903</v>
-      </c>
-      <c r="T25">
-        <v>0.05324314553204351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3.57841</v>
-      </c>
-      <c r="H26">
-        <v>10.73523</v>
-      </c>
-      <c r="I26">
-        <v>0.05157626009208017</v>
-      </c>
-      <c r="J26">
-        <v>0.06193758052253855</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.10241</v>
-      </c>
-      <c r="O26">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P26">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q26">
-        <v>0.1221549893666667</v>
-      </c>
-      <c r="R26">
-        <v>1.0993949043</v>
-      </c>
-      <c r="S26">
-        <v>1.199620228720807E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.059811074585013E-05</v>
+        <v>0.0001268276426570806</v>
       </c>
     </row>
   </sheetData>
